--- a/dataanalysis/data/predictions/1200/08131149_1150.xlsx
+++ b/dataanalysis/data/predictions/1200/08131149_1150.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="170">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-13</t>
   </si>
   <si>
@@ -521,12 +524,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -884,13 +881,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH89"/>
+  <dimension ref="A1:AI89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -993,19 +990,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300145</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>15.37</v>
@@ -1023,7 +1023,7 @@
         <v>188741.4</v>
       </c>
       <c r="J2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1064,8 +1064,23 @@
       <c r="W2">
         <v>1.54</v>
       </c>
+      <c r="X2">
+        <v>-5.1</v>
+      </c>
+      <c r="Y2">
+        <v>5.6</v>
+      </c>
+      <c r="Z2">
+        <v>5.07</v>
+      </c>
       <c r="AC2" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1073,22 +1088,25 @@
       <c r="AG2">
         <v>3.199365377426147</v>
       </c>
-      <c r="AH2" t="s">
-        <v>169</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300158</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>3.27</v>
@@ -1106,7 +1124,7 @@
         <v>103373.5</v>
       </c>
       <c r="J3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K3">
         <v>16</v>
@@ -1147,8 +1165,23 @@
       <c r="W3">
         <v>0.55</v>
       </c>
+      <c r="X3">
+        <v>-3.86</v>
+      </c>
+      <c r="Y3">
+        <v>9.1</v>
+      </c>
+      <c r="Z3">
+        <v>2.82</v>
+      </c>
       <c r="AC3" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1156,22 +1189,25 @@
       <c r="AG3">
         <v>53.6053581237793</v>
       </c>
-      <c r="AH3" t="s">
-        <v>169</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300199</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>3.01</v>
@@ -1189,7 +1225,7 @@
         <v>198293.94</v>
       </c>
       <c r="J4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K4">
         <v>12</v>
@@ -1230,8 +1266,23 @@
       <c r="W4">
         <v>0.12</v>
       </c>
+      <c r="X4">
+        <v>-0.32</v>
+      </c>
+      <c r="Y4">
+        <v>25.83</v>
+      </c>
+      <c r="Z4">
+        <v>3.28</v>
+      </c>
       <c r="AC4" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1239,22 +1290,25 @@
       <c r="AG4">
         <v>3.049995183944702</v>
       </c>
-      <c r="AH4" t="s">
-        <v>169</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300218</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-3.08</v>
@@ -1272,7 +1326,7 @@
         <v>27559.71</v>
       </c>
       <c r="J5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -1313,8 +1367,23 @@
       <c r="W5">
         <v>-0.61</v>
       </c>
+      <c r="X5">
+        <v>-3.54</v>
+      </c>
+      <c r="Y5">
+        <v>23.01</v>
+      </c>
+      <c r="Z5">
+        <v>1.41</v>
+      </c>
       <c r="AC5" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1322,22 +1391,25 @@
       <c r="AG5">
         <v>2.878584146499634</v>
       </c>
-      <c r="AH5" t="s">
-        <v>169</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300289</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>5.37</v>
@@ -1355,7 +1427,7 @@
         <v>98423.95</v>
       </c>
       <c r="J6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K6">
         <v>5</v>
@@ -1396,8 +1468,23 @@
       <c r="W6">
         <v>1.14</v>
       </c>
+      <c r="X6">
+        <v>-11.21</v>
+      </c>
+      <c r="Y6">
+        <v>10.99</v>
+      </c>
+      <c r="Z6">
+        <v>-3.43</v>
+      </c>
       <c r="AC6" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1405,22 +1492,25 @@
       <c r="AG6">
         <v>3.641203165054321</v>
       </c>
-      <c r="AH6" t="s">
-        <v>169</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300304</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>-1.16</v>
@@ -1438,7 +1528,7 @@
         <v>55366.84</v>
       </c>
       <c r="J7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -1479,8 +1569,23 @@
       <c r="W7">
         <v>-0.3</v>
       </c>
+      <c r="X7">
+        <v>-5.44</v>
+      </c>
+      <c r="Y7">
+        <v>13.46</v>
+      </c>
+      <c r="Z7">
+        <v>5.57</v>
+      </c>
       <c r="AC7" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1488,22 +1593,25 @@
       <c r="AG7">
         <v>-0.5558754205703735</v>
       </c>
-      <c r="AH7" t="s">
-        <v>169</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300314</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-2.3</v>
@@ -1521,7 +1629,7 @@
         <v>27827.53</v>
       </c>
       <c r="J8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1562,8 +1670,23 @@
       <c r="W8">
         <v>-0.87</v>
       </c>
+      <c r="X8">
+        <v>-3.67</v>
+      </c>
+      <c r="Y8">
+        <v>15.48</v>
+      </c>
+      <c r="Z8">
+        <v>1.24</v>
+      </c>
       <c r="AC8" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1571,22 +1694,25 @@
       <c r="AG8">
         <v>1.108662247657776</v>
       </c>
-      <c r="AH8" t="s">
-        <v>169</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300322</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>3.34</v>
@@ -1604,7 +1730,7 @@
         <v>279197.85</v>
       </c>
       <c r="J9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K9">
         <v>13</v>
@@ -1645,8 +1771,23 @@
       <c r="W9">
         <v>-0.93</v>
       </c>
+      <c r="X9">
+        <v>-7.67</v>
+      </c>
+      <c r="Y9">
+        <v>29.18</v>
+      </c>
+      <c r="Z9">
+        <v>0.27</v>
+      </c>
       <c r="AC9" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>1</v>
@@ -1654,22 +1795,25 @@
       <c r="AG9">
         <v>-1.56990385055542</v>
       </c>
-      <c r="AH9" t="s">
-        <v>169</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300368</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-2.1</v>
@@ -1687,7 +1831,7 @@
         <v>182228.44</v>
       </c>
       <c r="J10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K10">
         <v>4</v>
@@ -1728,8 +1872,23 @@
       <c r="W10">
         <v>-2.3</v>
       </c>
+      <c r="X10">
+        <v>-11.45</v>
+      </c>
+      <c r="Y10">
+        <v>17</v>
+      </c>
+      <c r="Z10">
+        <v>-1.51</v>
+      </c>
       <c r="AC10" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1737,22 +1896,25 @@
       <c r="AG10">
         <v>-3.408015727996826</v>
       </c>
-      <c r="AH10" t="s">
-        <v>169</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300398</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>1.72</v>
@@ -1770,7 +1932,7 @@
         <v>169715.55</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1811,8 +1973,23 @@
       <c r="W11">
         <v>-0.29</v>
       </c>
+      <c r="X11">
+        <v>-2.84</v>
+      </c>
+      <c r="Y11">
+        <v>23.89</v>
+      </c>
+      <c r="Z11">
+        <v>1.27</v>
+      </c>
       <c r="AC11" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1820,22 +1997,25 @@
       <c r="AG11">
         <v>2.131187677383423</v>
       </c>
-      <c r="AH11" t="s">
-        <v>169</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300400</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-1.27</v>
@@ -1853,7 +2033,7 @@
         <v>30273.88</v>
       </c>
       <c r="J12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1894,8 +2074,23 @@
       <c r="W12">
         <v>-0.65</v>
       </c>
+      <c r="X12">
+        <v>4.07</v>
+      </c>
+      <c r="Y12">
+        <v>27</v>
+      </c>
+      <c r="Z12">
+        <v>15.34</v>
+      </c>
       <c r="AC12" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
       </c>
       <c r="AF12">
         <v>1</v>
@@ -1903,22 +2098,25 @@
       <c r="AG12">
         <v>5.910089015960693</v>
       </c>
-      <c r="AH12" t="s">
-        <v>169</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300430</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>5.6</v>
@@ -1936,7 +2134,7 @@
         <v>96287.91</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1977,8 +2175,23 @@
       <c r="W13">
         <v>0.77</v>
       </c>
+      <c r="X13">
+        <v>-1.74</v>
+      </c>
+      <c r="Y13">
+        <v>25.88</v>
+      </c>
+      <c r="Z13">
+        <v>7.21</v>
+      </c>
       <c r="AC13" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1986,22 +2199,25 @@
       <c r="AG13">
         <v>6.966493129730225</v>
       </c>
-      <c r="AH13" t="s">
-        <v>169</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300436</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-0.8</v>
@@ -2019,7 +2235,7 @@
         <v>120963.57</v>
       </c>
       <c r="J14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K14">
         <v>30</v>
@@ -2060,8 +2276,23 @@
       <c r="W14">
         <v>-0.6899999999999999</v>
       </c>
+      <c r="X14">
+        <v>6.39</v>
+      </c>
+      <c r="Y14">
+        <v>150.2</v>
+      </c>
+      <c r="Z14">
+        <v>11.98</v>
+      </c>
       <c r="AC14" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2069,22 +2300,25 @@
       <c r="AG14">
         <v>-0.4861644208431244</v>
       </c>
-      <c r="AH14" t="s">
-        <v>169</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300455</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>1.53</v>
@@ -2102,7 +2336,7 @@
         <v>95789.77</v>
       </c>
       <c r="J15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K15">
         <v>7</v>
@@ -2143,8 +2377,23 @@
       <c r="W15">
         <v>-0.18</v>
       </c>
+      <c r="X15">
+        <v>-5.51</v>
+      </c>
+      <c r="Y15">
+        <v>19.5</v>
+      </c>
+      <c r="Z15">
+        <v>1.62</v>
+      </c>
       <c r="AC15" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2152,22 +2401,25 @@
       <c r="AG15">
         <v>1.96540641784668</v>
       </c>
-      <c r="AH15" t="s">
-        <v>169</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300486</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>6.34</v>
@@ -2185,7 +2437,7 @@
         <v>82072.42</v>
       </c>
       <c r="J16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -2226,8 +2478,23 @@
       <c r="W16">
         <v>0.34</v>
       </c>
+      <c r="X16">
+        <v>-0.33</v>
+      </c>
+      <c r="Y16">
+        <v>18.69</v>
+      </c>
+      <c r="Z16">
+        <v>8.16</v>
+      </c>
       <c r="AC16" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2235,22 +2502,25 @@
       <c r="AG16">
         <v>3.860500812530518</v>
       </c>
-      <c r="AH16" t="s">
-        <v>169</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300499</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>4.12</v>
@@ -2268,7 +2538,7 @@
         <v>157752.95</v>
       </c>
       <c r="J17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -2309,8 +2579,23 @@
       <c r="W17">
         <v>-0.12</v>
       </c>
+      <c r="X17">
+        <v>-1.03</v>
+      </c>
+      <c r="Y17">
+        <v>25.38</v>
+      </c>
+      <c r="Z17">
+        <v>6.77</v>
+      </c>
       <c r="AC17" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2318,22 +2603,25 @@
       <c r="AG17">
         <v>9.729700088500977</v>
       </c>
-      <c r="AH17" t="s">
-        <v>169</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300548</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>4.33</v>
@@ -2351,7 +2639,7 @@
         <v>190915.2</v>
       </c>
       <c r="J18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K18">
         <v>22</v>
@@ -2392,8 +2680,23 @@
       <c r="W18">
         <v>0.78</v>
       </c>
+      <c r="X18">
+        <v>-6.76</v>
+      </c>
+      <c r="Y18">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="Z18">
+        <v>0.32</v>
+      </c>
       <c r="AC18" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2401,22 +2704,25 @@
       <c r="AG18">
         <v>3.091021299362183</v>
       </c>
-      <c r="AH18" t="s">
-        <v>169</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300584</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-0.9</v>
@@ -2434,7 +2740,7 @@
         <v>70986.81</v>
       </c>
       <c r="J19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -2475,8 +2781,23 @@
       <c r="W19">
         <v>-0.53</v>
       </c>
+      <c r="X19">
+        <v>6.72</v>
+      </c>
+      <c r="Y19">
+        <v>55.58</v>
+      </c>
+      <c r="Z19">
+        <v>9.32</v>
+      </c>
       <c r="AC19" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2484,22 +2805,25 @@
       <c r="AG19">
         <v>0.7538254857063293</v>
       </c>
-      <c r="AH19" t="s">
-        <v>169</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300593</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>0.11</v>
@@ -2517,7 +2841,7 @@
         <v>26139.93</v>
       </c>
       <c r="J20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K20">
         <v>4</v>
@@ -2558,8 +2882,23 @@
       <c r="W20">
         <v>-0.03</v>
       </c>
+      <c r="X20">
+        <v>-7.34</v>
+      </c>
+      <c r="Y20">
+        <v>18.87</v>
+      </c>
+      <c r="Z20">
+        <v>2.33</v>
+      </c>
       <c r="AC20" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2567,22 +2906,25 @@
       <c r="AG20">
         <v>3.787603139877319</v>
       </c>
-      <c r="AH20" t="s">
-        <v>169</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300600</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>4.01</v>
@@ -2600,7 +2942,7 @@
         <v>78599.75999999999</v>
       </c>
       <c r="J21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K21">
         <v>11</v>
@@ -2641,8 +2983,23 @@
       <c r="W21">
         <v>-0.02</v>
       </c>
+      <c r="X21">
+        <v>0.9</v>
+      </c>
+      <c r="Y21">
+        <v>21.56</v>
+      </c>
+      <c r="Z21">
+        <v>1.41</v>
+      </c>
       <c r="AC21" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2650,22 +3007,25 @@
       <c r="AG21">
         <v>0.6655989289283752</v>
       </c>
-      <c r="AH21" t="s">
-        <v>169</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300620</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>20.01</v>
@@ -2683,7 +3043,7 @@
         <v>216905.75</v>
       </c>
       <c r="J22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -2724,8 +3084,23 @@
       <c r="W22">
         <v>0.82</v>
       </c>
+      <c r="X22">
+        <v>0.95</v>
+      </c>
+      <c r="Y22">
+        <v>86.97</v>
+      </c>
+      <c r="Z22">
+        <v>9.67</v>
+      </c>
       <c r="AC22" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>1</v>
@@ -2733,22 +3108,25 @@
       <c r="AG22">
         <v>16.49001884460449</v>
       </c>
-      <c r="AH22" t="s">
-        <v>170</v>
+      <c r="AH22">
+        <v>1</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300637</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>3.89</v>
@@ -2766,7 +3144,7 @@
         <v>94105.49000000001</v>
       </c>
       <c r="J23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -2807,8 +3185,23 @@
       <c r="W23">
         <v>0.4</v>
       </c>
+      <c r="X23">
+        <v>-5.25</v>
+      </c>
+      <c r="Y23">
+        <v>17.77</v>
+      </c>
+      <c r="Z23">
+        <v>16.83</v>
+      </c>
       <c r="AC23" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2816,22 +3209,25 @@
       <c r="AG23">
         <v>1.814496755599976</v>
       </c>
-      <c r="AH23" t="s">
-        <v>169</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300648</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>2.25</v>
@@ -2849,7 +3245,7 @@
         <v>38413.23</v>
       </c>
       <c r="J24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K24">
         <v>10</v>
@@ -2890,8 +3286,23 @@
       <c r="W24">
         <v>-0.84</v>
       </c>
+      <c r="X24">
+        <v>2.02</v>
+      </c>
+      <c r="Y24">
+        <v>59.98</v>
+      </c>
+      <c r="Z24">
+        <v>6.59</v>
+      </c>
       <c r="AC24" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2899,22 +3310,25 @@
       <c r="AG24">
         <v>0.3531631529331207</v>
       </c>
-      <c r="AH24" t="s">
-        <v>169</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300671</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>-0.37</v>
@@ -2932,7 +3346,7 @@
         <v>109432.27</v>
       </c>
       <c r="J25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -2973,8 +3387,23 @@
       <c r="W25">
         <v>-0.46</v>
       </c>
+      <c r="X25">
+        <v>-5.93</v>
+      </c>
+      <c r="Y25">
+        <v>43.18</v>
+      </c>
+      <c r="Z25">
+        <v>1.31</v>
+      </c>
       <c r="AC25" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2982,22 +3411,25 @@
       <c r="AG25">
         <v>3.760408401489258</v>
       </c>
-      <c r="AH25" t="s">
-        <v>169</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300684</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-1.45</v>
@@ -3015,7 +3447,7 @@
         <v>76053.11</v>
       </c>
       <c r="J26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K26">
         <v>11</v>
@@ -3056,8 +3488,23 @@
       <c r="W26">
         <v>-0.71</v>
       </c>
+      <c r="X26">
+        <v>-5.01</v>
+      </c>
+      <c r="Y26">
+        <v>33.67</v>
+      </c>
+      <c r="Z26">
+        <v>1.14</v>
+      </c>
       <c r="AC26" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3065,22 +3512,25 @@
       <c r="AG26">
         <v>6.980975151062012</v>
       </c>
-      <c r="AH26" t="s">
-        <v>169</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300690</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-2.66</v>
@@ -3098,7 +3548,7 @@
         <v>106149.92</v>
       </c>
       <c r="J27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -3139,8 +3589,23 @@
       <c r="W27">
         <v>-0.13</v>
       </c>
+      <c r="X27">
+        <v>-7.4</v>
+      </c>
+      <c r="Y27">
+        <v>35.79</v>
+      </c>
+      <c r="Z27">
+        <v>3.92</v>
+      </c>
       <c r="AC27" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3148,22 +3613,25 @@
       <c r="AG27">
         <v>0.8895314335823059</v>
       </c>
-      <c r="AH27" t="s">
-        <v>169</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300696</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>3.28</v>
@@ -3181,7 +3649,7 @@
         <v>66499.92</v>
       </c>
       <c r="J28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K28">
         <v>8</v>
@@ -3222,8 +3690,23 @@
       <c r="W28">
         <v>0.42</v>
       </c>
+      <c r="X28">
+        <v>-6.57</v>
+      </c>
+      <c r="Y28">
+        <v>31.83</v>
+      </c>
+      <c r="Z28">
+        <v>0.06</v>
+      </c>
       <c r="AC28" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3231,22 +3714,25 @@
       <c r="AG28">
         <v>27.24017906188965</v>
       </c>
-      <c r="AH28" t="s">
-        <v>169</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300697</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>7.87</v>
@@ -3264,7 +3750,7 @@
         <v>70375.69</v>
       </c>
       <c r="J29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -3305,8 +3791,23 @@
       <c r="W29">
         <v>1.47</v>
       </c>
+      <c r="X29">
+        <v>-5.33</v>
+      </c>
+      <c r="Y29">
+        <v>16.69</v>
+      </c>
+      <c r="Z29">
+        <v>2.27</v>
+      </c>
       <c r="AC29" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3314,22 +3815,25 @@
       <c r="AG29">
         <v>4.428143978118896</v>
       </c>
-      <c r="AH29" t="s">
-        <v>169</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300703</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>1.83</v>
@@ -3347,7 +3851,7 @@
         <v>32028.52</v>
       </c>
       <c r="J30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K30">
         <v>4</v>
@@ -3388,8 +3892,23 @@
       <c r="W30">
         <v>0.01</v>
       </c>
+      <c r="X30">
+        <v>7.01</v>
+      </c>
+      <c r="Y30">
+        <v>37.22</v>
+      </c>
+      <c r="Z30">
+        <v>9.92</v>
+      </c>
       <c r="AC30" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3397,22 +3916,25 @@
       <c r="AG30">
         <v>2.286922216415405</v>
       </c>
-      <c r="AH30" t="s">
-        <v>169</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300706</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>-1.37</v>
@@ -3430,7 +3952,7 @@
         <v>107649.77</v>
       </c>
       <c r="J31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K31">
         <v>14</v>
@@ -3471,8 +3993,23 @@
       <c r="W31">
         <v>-1.2</v>
       </c>
+      <c r="X31">
+        <v>-6.95</v>
+      </c>
+      <c r="Y31">
+        <v>49.64</v>
+      </c>
+      <c r="Z31">
+        <v>3.22</v>
+      </c>
       <c r="AC31" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3480,22 +4017,25 @@
       <c r="AG31">
         <v>5.43511438369751</v>
       </c>
-      <c r="AH31" t="s">
-        <v>169</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300731</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-0.98</v>
@@ -3513,7 +4053,7 @@
         <v>80419.03999999999</v>
       </c>
       <c r="J32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K32">
         <v>9</v>
@@ -3554,8 +4094,23 @@
       <c r="W32">
         <v>0.4</v>
       </c>
+      <c r="X32">
+        <v>-7.02</v>
+      </c>
+      <c r="Y32">
+        <v>53.98</v>
+      </c>
+      <c r="Z32">
+        <v>11.51</v>
+      </c>
       <c r="AC32" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3563,22 +4118,25 @@
       <c r="AG32">
         <v>5.741328239440918</v>
       </c>
-      <c r="AH32" t="s">
-        <v>169</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300753</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>-0.03</v>
@@ -3596,7 +4154,7 @@
         <v>50023.48</v>
       </c>
       <c r="J33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -3637,8 +4195,23 @@
       <c r="W33">
         <v>-0.85</v>
       </c>
+      <c r="X33">
+        <v>2.71</v>
+      </c>
+      <c r="Y33">
+        <v>37.97</v>
+      </c>
+      <c r="Z33">
+        <v>8.24</v>
+      </c>
       <c r="AC33" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3646,22 +4219,25 @@
       <c r="AG33">
         <v>4.883464813232422</v>
       </c>
-      <c r="AH33" t="s">
-        <v>169</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300780</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-3.11</v>
@@ -3679,7 +4255,7 @@
         <v>31009.05</v>
       </c>
       <c r="J34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K34">
         <v>4</v>
@@ -3720,8 +4296,23 @@
       <c r="W34">
         <v>-1.28</v>
       </c>
+      <c r="X34">
+        <v>-8.07</v>
+      </c>
+      <c r="Y34">
+        <v>20.86</v>
+      </c>
+      <c r="Z34">
+        <v>-1.6</v>
+      </c>
       <c r="AC34" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3729,22 +4320,25 @@
       <c r="AG34">
         <v>1.987311005592346</v>
       </c>
-      <c r="AH34" t="s">
-        <v>169</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300803</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>5.52</v>
@@ -3762,7 +4356,7 @@
         <v>498968.17</v>
       </c>
       <c r="J35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -3803,8 +4397,23 @@
       <c r="W35">
         <v>0.41</v>
       </c>
+      <c r="X35">
+        <v>-4.47</v>
+      </c>
+      <c r="Y35">
+        <v>96.5</v>
+      </c>
+      <c r="Z35">
+        <v>-1.6</v>
+      </c>
       <c r="AC35" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3812,22 +4421,25 @@
       <c r="AG35">
         <v>-4.606692790985107</v>
       </c>
-      <c r="AH35" t="s">
-        <v>169</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300815</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>3.36</v>
@@ -3845,7 +4457,7 @@
         <v>291385.68</v>
       </c>
       <c r="J36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -3886,8 +4498,23 @@
       <c r="W36">
         <v>-3.01</v>
       </c>
+      <c r="X36">
+        <v>-11.46</v>
+      </c>
+      <c r="Y36">
+        <v>31.7</v>
+      </c>
+      <c r="Z36">
+        <v>3.97</v>
+      </c>
       <c r="AC36" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3895,22 +4522,25 @@
       <c r="AG36">
         <v>-9.103304862976074</v>
       </c>
-      <c r="AH36" t="s">
-        <v>169</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300873</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>-2.78</v>
@@ -3928,7 +4558,7 @@
         <v>27339.43</v>
       </c>
       <c r="J37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -3969,8 +4599,23 @@
       <c r="W37">
         <v>-0.04</v>
       </c>
+      <c r="X37">
+        <v>-4.69</v>
+      </c>
+      <c r="Y37">
+        <v>26.17</v>
+      </c>
+      <c r="Z37">
+        <v>-0.23</v>
+      </c>
       <c r="AC37" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3978,22 +4623,25 @@
       <c r="AG37">
         <v>31.15776824951172</v>
       </c>
-      <c r="AH37" t="s">
-        <v>169</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300875</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>2.96</v>
@@ -4011,7 +4659,7 @@
         <v>88164.58</v>
       </c>
       <c r="J38" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K38">
         <v>6</v>
@@ -4052,8 +4700,23 @@
       <c r="W38">
         <v>0.16</v>
       </c>
+      <c r="X38">
+        <v>-9.26</v>
+      </c>
+      <c r="Y38">
+        <v>60.42</v>
+      </c>
+      <c r="Z38">
+        <v>-2.88</v>
+      </c>
       <c r="AC38" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4061,22 +4724,25 @@
       <c r="AG38">
         <v>-3.496494054794312</v>
       </c>
-      <c r="AH38" t="s">
-        <v>169</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300885</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-2.08</v>
@@ -4094,7 +4760,7 @@
         <v>60687.42</v>
       </c>
       <c r="J39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K39">
         <v>16</v>
@@ -4135,8 +4801,23 @@
       <c r="W39">
         <v>-0.17</v>
       </c>
+      <c r="X39">
+        <v>-7.36</v>
+      </c>
+      <c r="Y39">
+        <v>29.06</v>
+      </c>
+      <c r="Z39">
+        <v>-1.82</v>
+      </c>
       <c r="AC39" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4144,22 +4825,25 @@
       <c r="AG39">
         <v>-1.720602631568909</v>
       </c>
-      <c r="AH39" t="s">
-        <v>169</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300916</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>0.39</v>
@@ -4177,7 +4861,7 @@
         <v>15893.94</v>
       </c>
       <c r="J40" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K40">
         <v>7</v>
@@ -4218,8 +4902,23 @@
       <c r="W40">
         <v>-0.15</v>
       </c>
+      <c r="X40">
+        <v>-2.53</v>
+      </c>
+      <c r="Y40">
+        <v>43.35</v>
+      </c>
+      <c r="Z40">
+        <v>-1.61</v>
+      </c>
       <c r="AC40" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4227,22 +4926,25 @@
       <c r="AG40">
         <v>1.849572062492371</v>
       </c>
-      <c r="AH40" t="s">
-        <v>169</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300981</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-2.29</v>
@@ -4260,7 +4962,7 @@
         <v>36531.79</v>
       </c>
       <c r="J41" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K41">
         <v>4</v>
@@ -4301,8 +5003,23 @@
       <c r="W41">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="X41">
+        <v>-9.91</v>
+      </c>
+      <c r="Y41">
+        <v>17.38</v>
+      </c>
+      <c r="Z41">
+        <v>1.82</v>
+      </c>
       <c r="AC41" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4310,22 +5027,25 @@
       <c r="AG41">
         <v>1.849554061889648</v>
       </c>
-      <c r="AH41" t="s">
-        <v>169</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300993</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>-1.2</v>
@@ -4343,7 +5063,7 @@
         <v>24311.42</v>
       </c>
       <c r="J42" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K42">
         <v>6</v>
@@ -4384,8 +5104,23 @@
       <c r="W42">
         <v>-0.32</v>
       </c>
+      <c r="X42">
+        <v>-3.33</v>
+      </c>
+      <c r="Y42">
+        <v>19.57</v>
+      </c>
+      <c r="Z42">
+        <v>7.71</v>
+      </c>
       <c r="AC42" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4393,22 +5128,25 @@
       <c r="AG42">
         <v>-0.8286191821098328</v>
       </c>
-      <c r="AH42" t="s">
-        <v>169</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>301005</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>-2.47</v>
@@ -4426,7 +5164,7 @@
         <v>72672.97</v>
       </c>
       <c r="J43" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K43">
         <v>7</v>
@@ -4467,8 +5205,23 @@
       <c r="W43">
         <v>-0.55</v>
       </c>
+      <c r="X43">
+        <v>-7.69</v>
+      </c>
+      <c r="Y43">
+        <v>56.89</v>
+      </c>
+      <c r="Z43">
+        <v>7.38</v>
+      </c>
       <c r="AC43" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4476,22 +5229,25 @@
       <c r="AG43">
         <v>3.130396127700806</v>
       </c>
-      <c r="AH43" t="s">
-        <v>169</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>301018</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>4.19</v>
@@ -4509,7 +5265,7 @@
         <v>129439.09</v>
       </c>
       <c r="J44" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -4550,8 +5306,23 @@
       <c r="W44">
         <v>-0.1</v>
       </c>
+      <c r="X44">
+        <v>-4.12</v>
+      </c>
+      <c r="Y44">
+        <v>59.77</v>
+      </c>
+      <c r="Z44">
+        <v>2.4</v>
+      </c>
       <c r="AC44" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4559,22 +5330,25 @@
       <c r="AG44">
         <v>3.213889837265015</v>
       </c>
-      <c r="AH44" t="s">
-        <v>169</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>301022</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-4.1</v>
@@ -4592,7 +5366,7 @@
         <v>26667.49</v>
       </c>
       <c r="J45" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K45">
         <v>6</v>
@@ -4633,8 +5407,23 @@
       <c r="W45">
         <v>0.05</v>
       </c>
+      <c r="X45">
+        <v>-10.73</v>
+      </c>
+      <c r="Y45">
+        <v>46.66</v>
+      </c>
+      <c r="Z45">
+        <v>-1.71</v>
+      </c>
       <c r="AC45" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4642,22 +5431,25 @@
       <c r="AG45">
         <v>7.559360504150391</v>
       </c>
-      <c r="AH45" t="s">
-        <v>169</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>301038</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>2.25</v>
@@ -4675,7 +5467,7 @@
         <v>61185.41</v>
       </c>
       <c r="J46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K46">
         <v>12</v>
@@ -4716,8 +5508,23 @@
       <c r="W46">
         <v>-0.28</v>
       </c>
+      <c r="X46">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Y46">
+        <v>40</v>
+      </c>
+      <c r="Z46">
+        <v>11.36</v>
+      </c>
       <c r="AC46" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>1</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4725,22 +5532,25 @@
       <c r="AG46">
         <v>6.559316635131836</v>
       </c>
-      <c r="AH46" t="s">
-        <v>169</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>301048</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>-5.1</v>
@@ -4758,7 +5568,7 @@
         <v>42794.3</v>
       </c>
       <c r="J47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K47">
         <v>3</v>
@@ -4799,8 +5609,23 @@
       <c r="W47">
         <v>-0.64</v>
       </c>
+      <c r="X47">
+        <v>-7.75</v>
+      </c>
+      <c r="Y47">
+        <v>13.98</v>
+      </c>
+      <c r="Z47">
+        <v>0.14</v>
+      </c>
       <c r="AC47" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4808,22 +5633,25 @@
       <c r="AG47">
         <v>5.797104835510254</v>
       </c>
-      <c r="AH47" t="s">
-        <v>169</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>301069</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>-0.86</v>
@@ -4841,7 +5669,7 @@
         <v>51456.6</v>
       </c>
       <c r="J48" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K48">
         <v>6</v>
@@ -4882,8 +5710,23 @@
       <c r="W48">
         <v>-0.04</v>
       </c>
+      <c r="X48">
+        <v>1</v>
+      </c>
+      <c r="Y48">
+        <v>22.97</v>
+      </c>
+      <c r="Z48">
+        <v>5.22</v>
+      </c>
       <c r="AC48" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4891,22 +5734,25 @@
       <c r="AG48">
         <v>2.699002742767334</v>
       </c>
-      <c r="AH48" t="s">
-        <v>169</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>301076</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>2.3</v>
@@ -4924,7 +5770,7 @@
         <v>124988.75</v>
       </c>
       <c r="J49" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K49">
         <v>6</v>
@@ -4965,8 +5811,23 @@
       <c r="W49">
         <v>-0.2</v>
       </c>
+      <c r="X49">
+        <v>5.24</v>
+      </c>
+      <c r="Y49">
+        <v>55.2</v>
+      </c>
+      <c r="Z49">
+        <v>13.05</v>
+      </c>
       <c r="AC49" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -4974,22 +5835,25 @@
       <c r="AG49">
         <v>0.1944295167922974</v>
       </c>
-      <c r="AH49" t="s">
-        <v>169</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>301095</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>3.12</v>
@@ -5007,7 +5871,7 @@
         <v>142381.08</v>
       </c>
       <c r="J50" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K50">
         <v>11</v>
@@ -5048,8 +5912,23 @@
       <c r="W50">
         <v>0.88</v>
       </c>
+      <c r="X50">
+        <v>-3.72</v>
+      </c>
+      <c r="Y50">
+        <v>89.5</v>
+      </c>
+      <c r="Z50">
+        <v>5.84</v>
+      </c>
       <c r="AC50" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5057,22 +5936,25 @@
       <c r="AG50">
         <v>2.998255491256714</v>
       </c>
-      <c r="AH50" t="s">
-        <v>169</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>301112</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>-5.27</v>
@@ -5090,7 +5972,7 @@
         <v>26109.39</v>
       </c>
       <c r="J51" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -5131,8 +6013,23 @@
       <c r="W51">
         <v>-0.38</v>
       </c>
+      <c r="X51">
+        <v>-3.81</v>
+      </c>
+      <c r="Y51">
+        <v>47.46</v>
+      </c>
+      <c r="Z51">
+        <v>0.08</v>
+      </c>
       <c r="AC51" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5140,22 +6037,25 @@
       <c r="AG51">
         <v>2.756324529647827</v>
       </c>
-      <c r="AH51" t="s">
-        <v>169</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>301117</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>1.03</v>
@@ -5173,7 +6073,7 @@
         <v>105029.1</v>
       </c>
       <c r="J52" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K52">
         <v>6</v>
@@ -5214,8 +6114,23 @@
       <c r="W52">
         <v>-1.96</v>
       </c>
+      <c r="X52">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="Y52">
+        <v>44.44</v>
+      </c>
+      <c r="Z52">
+        <v>8.130000000000001</v>
+      </c>
       <c r="AC52" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>1</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5223,22 +6138,25 @@
       <c r="AG52">
         <v>13.38089466094971</v>
       </c>
-      <c r="AH52" t="s">
-        <v>169</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>301120</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>2.31</v>
@@ -5256,7 +6174,7 @@
         <v>63317.28</v>
       </c>
       <c r="J53" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K53">
         <v>7</v>
@@ -5297,8 +6215,23 @@
       <c r="W53">
         <v>1.38</v>
       </c>
+      <c r="X53">
+        <v>-0.74</v>
+      </c>
+      <c r="Y53">
+        <v>15.4</v>
+      </c>
+      <c r="Z53">
+        <v>2.05</v>
+      </c>
       <c r="AC53" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5306,22 +6239,25 @@
       <c r="AG53">
         <v>2.572100162506104</v>
       </c>
-      <c r="AH53" t="s">
-        <v>169</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>301128</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>3.68</v>
@@ -5339,7 +6275,7 @@
         <v>53655.09</v>
       </c>
       <c r="J54" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -5380,8 +6316,23 @@
       <c r="W54">
         <v>0.35</v>
       </c>
+      <c r="X54">
+        <v>-4.35</v>
+      </c>
+      <c r="Y54">
+        <v>69.66</v>
+      </c>
+      <c r="Z54">
+        <v>0.9</v>
+      </c>
       <c r="AC54" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5389,22 +6340,25 @@
       <c r="AG54">
         <v>2.063252449035645</v>
       </c>
-      <c r="AH54" t="s">
-        <v>169</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>301161</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>-0.9</v>
@@ -5422,7 +6376,7 @@
         <v>25303.81</v>
       </c>
       <c r="J55" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K55">
         <v>8</v>
@@ -5463,8 +6417,23 @@
       <c r="W55">
         <v>-0.46</v>
       </c>
+      <c r="X55">
+        <v>-7.91</v>
+      </c>
+      <c r="Y55">
+        <v>40.84</v>
+      </c>
+      <c r="Z55">
+        <v>6.02</v>
+      </c>
       <c r="AC55" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5472,22 +6441,25 @@
       <c r="AG55">
         <v>3.501768350601196</v>
       </c>
-      <c r="AH55" t="s">
-        <v>169</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>301165</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>0.28</v>
@@ -5505,7 +6477,7 @@
         <v>62404.67</v>
       </c>
       <c r="J56" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -5546,8 +6518,23 @@
       <c r="W56">
         <v>0</v>
       </c>
+      <c r="X56">
+        <v>-1.03</v>
+      </c>
+      <c r="Y56">
+        <v>69.88</v>
+      </c>
+      <c r="Z56">
+        <v>3.05</v>
+      </c>
       <c r="AC56" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5555,22 +6542,25 @@
       <c r="AG56">
         <v>3.077830076217651</v>
       </c>
-      <c r="AH56" t="s">
-        <v>169</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>301187</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>1.28</v>
@@ -5588,7 +6578,7 @@
         <v>18637.24</v>
       </c>
       <c r="J57" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -5629,8 +6619,23 @@
       <c r="W57">
         <v>0.2</v>
       </c>
+      <c r="X57">
+        <v>-3.17</v>
+      </c>
+      <c r="Y57">
+        <v>34.96</v>
+      </c>
+      <c r="Z57">
+        <v>2.4</v>
+      </c>
       <c r="AC57" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5638,22 +6643,25 @@
       <c r="AG57">
         <v>-1.164447546005249</v>
       </c>
-      <c r="AH57" t="s">
-        <v>169</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>301196</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>9.619999999999999</v>
@@ -5671,7 +6679,7 @@
         <v>81442.39</v>
       </c>
       <c r="J58" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K58">
         <v>1</v>
@@ -5712,8 +6720,23 @@
       <c r="W58">
         <v>-0.32</v>
       </c>
+      <c r="X58">
+        <v>-4.2</v>
+      </c>
+      <c r="Y58">
+        <v>103</v>
+      </c>
+      <c r="Z58">
+        <v>4.61</v>
+      </c>
       <c r="AC58" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5721,22 +6744,25 @@
       <c r="AG58">
         <v>-13.61132049560547</v>
       </c>
-      <c r="AH58" t="s">
-        <v>169</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>301200</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>-1.05</v>
@@ -5754,7 +6780,7 @@
         <v>51674.58</v>
       </c>
       <c r="J59" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K59">
         <v>15</v>
@@ -5795,8 +6821,23 @@
       <c r="W59">
         <v>0.48</v>
       </c>
+      <c r="X59">
+        <v>-12.15</v>
+      </c>
+      <c r="Y59">
+        <v>101.89</v>
+      </c>
+      <c r="Z59">
+        <v>7.49</v>
+      </c>
       <c r="AC59" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5804,22 +6845,25 @@
       <c r="AG59">
         <v>7.131989002227783</v>
       </c>
-      <c r="AH59" t="s">
-        <v>169</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>301217</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>5.58</v>
@@ -5837,7 +6881,7 @@
         <v>134483.14</v>
       </c>
       <c r="J60" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K60">
         <v>28</v>
@@ -5878,8 +6922,23 @@
       <c r="W60">
         <v>0.33</v>
       </c>
+      <c r="X60">
+        <v>-6.15</v>
+      </c>
+      <c r="Y60">
+        <v>29.97</v>
+      </c>
+      <c r="Z60">
+        <v>13.87</v>
+      </c>
       <c r="AC60" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>1</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5887,22 +6946,25 @@
       <c r="AG60">
         <v>-5.174656391143799</v>
       </c>
-      <c r="AH60" t="s">
-        <v>169</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>301232</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>-4.75</v>
@@ -5920,7 +6982,7 @@
         <v>28968.55</v>
       </c>
       <c r="J61" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K61">
         <v>3</v>
@@ -5961,8 +7023,23 @@
       <c r="W61">
         <v>-0.62</v>
       </c>
+      <c r="X61">
+        <v>-8.84</v>
+      </c>
+      <c r="Y61">
+        <v>40.99</v>
+      </c>
+      <c r="Z61">
+        <v>0.1</v>
+      </c>
       <c r="AC61" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -5970,22 +7047,25 @@
       <c r="AG61">
         <v>3.310392141342163</v>
       </c>
-      <c r="AH61" t="s">
-        <v>169</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>301251</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>1.48</v>
@@ -6003,7 +7083,7 @@
         <v>103721.96</v>
       </c>
       <c r="J62" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K62">
         <v>6</v>
@@ -6044,8 +7124,23 @@
       <c r="W62">
         <v>-0.48</v>
       </c>
+      <c r="X62">
+        <v>-5.75</v>
+      </c>
+      <c r="Y62">
+        <v>62</v>
+      </c>
+      <c r="Z62">
+        <v>6.22</v>
+      </c>
       <c r="AC62" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6053,22 +7148,25 @@
       <c r="AG62">
         <v>5.91402530670166</v>
       </c>
-      <c r="AH62" t="s">
-        <v>169</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>301285</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>-0.47</v>
@@ -6086,7 +7184,7 @@
         <v>26530.77</v>
       </c>
       <c r="J63" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K63">
         <v>3</v>
@@ -6127,8 +7225,23 @@
       <c r="W63">
         <v>0.65</v>
       </c>
+      <c r="X63">
+        <v>-5.94</v>
+      </c>
+      <c r="Y63">
+        <v>51.5</v>
+      </c>
+      <c r="Z63">
+        <v>1.5</v>
+      </c>
       <c r="AC63" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6136,22 +7249,25 @@
       <c r="AG63">
         <v>1.296438097953796</v>
       </c>
-      <c r="AH63" t="s">
-        <v>169</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>301312</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>1.24</v>
@@ -6169,7 +7285,7 @@
         <v>33308.13</v>
       </c>
       <c r="J64" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K64">
         <v>3</v>
@@ -6210,8 +7326,23 @@
       <c r="W64">
         <v>0.66</v>
       </c>
+      <c r="X64">
+        <v>-4.22</v>
+      </c>
+      <c r="Y64">
+        <v>48.32</v>
+      </c>
+      <c r="Z64">
+        <v>0.6899999999999999</v>
+      </c>
       <c r="AC64" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6219,22 +7350,25 @@
       <c r="AG64">
         <v>1.066295266151428</v>
       </c>
-      <c r="AH64" t="s">
-        <v>169</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>301323</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>-2.33</v>
@@ -6252,7 +7386,7 @@
         <v>27011.75</v>
       </c>
       <c r="J65" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K65">
         <v>2</v>
@@ -6293,8 +7427,23 @@
       <c r="W65">
         <v>-0.58</v>
       </c>
+      <c r="X65">
+        <v>-1.82</v>
+      </c>
+      <c r="Y65">
+        <v>58.45</v>
+      </c>
+      <c r="Z65">
+        <v>5.03</v>
+      </c>
       <c r="AC65" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6302,22 +7451,25 @@
       <c r="AG65">
         <v>2.858386278152466</v>
       </c>
-      <c r="AH65" t="s">
-        <v>169</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>301326</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>-1.73</v>
@@ -6335,7 +7487,7 @@
         <v>23400.79</v>
       </c>
       <c r="J66" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K66">
         <v>4</v>
@@ -6376,8 +7528,23 @@
       <c r="W66">
         <v>-1.02</v>
       </c>
+      <c r="X66">
+        <v>-3.17</v>
+      </c>
+      <c r="Y66">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="Z66">
+        <v>0.68</v>
+      </c>
       <c r="AC66" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6385,22 +7552,25 @@
       <c r="AG66">
         <v>1.221285462379456</v>
       </c>
-      <c r="AH66" t="s">
-        <v>169</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>301357</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>7.26</v>
@@ -6418,7 +7588,7 @@
         <v>134379.51</v>
       </c>
       <c r="J67" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K67">
         <v>12</v>
@@ -6459,8 +7629,23 @@
       <c r="W67">
         <v>-0.28</v>
       </c>
+      <c r="X67">
+        <v>-8.65</v>
+      </c>
+      <c r="Y67">
+        <v>162.77</v>
+      </c>
+      <c r="Z67">
+        <v>-1.82</v>
+      </c>
       <c r="AC67" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6468,22 +7653,25 @@
       <c r="AG67">
         <v>-0.9401490688323975</v>
       </c>
-      <c r="AH67" t="s">
-        <v>169</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>301377</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>0.23</v>
@@ -6501,7 +7689,7 @@
         <v>28822.49</v>
       </c>
       <c r="J68" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K68">
         <v>3</v>
@@ -6542,8 +7730,23 @@
       <c r="W68">
         <v>-0.13</v>
       </c>
+      <c r="X68">
+        <v>-1.19</v>
+      </c>
+      <c r="Y68">
+        <v>60.72</v>
+      </c>
+      <c r="Z68">
+        <v>8.74</v>
+      </c>
       <c r="AC68" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>1</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6551,22 +7754,25 @@
       <c r="AG68">
         <v>1.66838014125824</v>
       </c>
-      <c r="AH68" t="s">
-        <v>169</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>301389</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>0.5</v>
@@ -6584,7 +7790,7 @@
         <v>46608.26</v>
       </c>
       <c r="J69" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K69">
         <v>27</v>
@@ -6625,8 +7831,23 @@
       <c r="W69">
         <v>0.44</v>
       </c>
+      <c r="X69">
+        <v>-10.6</v>
+      </c>
+      <c r="Y69">
+        <v>54.28</v>
+      </c>
+      <c r="Z69">
+        <v>8.970000000000001</v>
+      </c>
       <c r="AC69" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>1</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6634,22 +7855,25 @@
       <c r="AG69">
         <v>0.2880118191242218</v>
       </c>
-      <c r="AH69" t="s">
-        <v>169</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>301397</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>6.09</v>
@@ -6667,7 +7891,7 @@
         <v>50925.16</v>
       </c>
       <c r="J70" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K70">
         <v>5</v>
@@ -6708,8 +7932,23 @@
       <c r="W70">
         <v>0.31</v>
       </c>
+      <c r="X70">
+        <v>-4.33</v>
+      </c>
+      <c r="Y70">
+        <v>42.24</v>
+      </c>
+      <c r="Z70">
+        <v>3.18</v>
+      </c>
       <c r="AC70" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6717,22 +7956,25 @@
       <c r="AG70">
         <v>-0.1243151798844337</v>
       </c>
-      <c r="AH70" t="s">
-        <v>169</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>301399</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>-3.23</v>
@@ -6750,7 +7992,7 @@
         <v>18046.03</v>
       </c>
       <c r="J71" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K71">
         <v>4</v>
@@ -6791,8 +8033,23 @@
       <c r="W71">
         <v>-0.71</v>
       </c>
+      <c r="X71">
+        <v>-7.88</v>
+      </c>
+      <c r="Y71">
+        <v>23.68</v>
+      </c>
+      <c r="Z71">
+        <v>-0.08</v>
+      </c>
       <c r="AC71" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6800,22 +8057,25 @@
       <c r="AG71">
         <v>0.7893716096878052</v>
       </c>
-      <c r="AH71" t="s">
-        <v>169</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>301486</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>1.99</v>
@@ -6833,7 +8093,7 @@
         <v>131567.83</v>
       </c>
       <c r="J72" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K72">
         <v>1</v>
@@ -6874,8 +8134,23 @@
       <c r="W72">
         <v>-1.56</v>
       </c>
+      <c r="X72">
+        <v>-7.35</v>
+      </c>
+      <c r="Y72">
+        <v>93</v>
+      </c>
+      <c r="Z72">
+        <v>-0.85</v>
+      </c>
       <c r="AC72" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -6883,22 +8158,25 @@
       <c r="AG72">
         <v>10.29427719116211</v>
       </c>
-      <c r="AH72" t="s">
-        <v>169</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>301489</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>7.12</v>
@@ -6916,7 +8194,7 @@
         <v>85763.14999999999</v>
       </c>
       <c r="J73" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K73">
         <v>10</v>
@@ -6957,8 +8235,23 @@
       <c r="W73">
         <v>0.14</v>
       </c>
+      <c r="X73">
+        <v>-2.38</v>
+      </c>
+      <c r="Y73">
+        <v>158</v>
+      </c>
+      <c r="Z73">
+        <v>-1.01</v>
+      </c>
       <c r="AC73" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -6966,22 +8259,25 @@
       <c r="AG73">
         <v>1.150529503822327</v>
       </c>
-      <c r="AH73" t="s">
-        <v>169</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>301511</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>5.02</v>
@@ -6999,7 +8295,7 @@
         <v>178443.9</v>
       </c>
       <c r="J74" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K74">
         <v>37</v>
@@ -7040,8 +8336,23 @@
       <c r="W74">
         <v>-0.7</v>
       </c>
+      <c r="X74">
+        <v>-11.27</v>
+      </c>
+      <c r="Y74">
+        <v>40.97</v>
+      </c>
+      <c r="Z74">
+        <v>8.85</v>
+      </c>
       <c r="AC74" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>1</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7049,22 +8360,25 @@
       <c r="AG74">
         <v>8.674714088439941</v>
       </c>
-      <c r="AH74" t="s">
-        <v>169</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>688108</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>7.49</v>
@@ -7082,7 +8396,7 @@
         <v>200704.45</v>
       </c>
       <c r="J75" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K75">
         <v>3</v>
@@ -7123,8 +8437,23 @@
       <c r="W75">
         <v>-0.6899999999999999</v>
       </c>
+      <c r="X75">
+        <v>3.05</v>
+      </c>
+      <c r="Y75">
+        <v>30.94</v>
+      </c>
+      <c r="Z75">
+        <v>14.64</v>
+      </c>
       <c r="AC75" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>1</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7132,22 +8461,25 @@
       <c r="AG75">
         <v>0.08016890287399292</v>
       </c>
-      <c r="AH75" t="s">
-        <v>169</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>688110</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -7165,7 +8497,7 @@
         <v>241309.72</v>
       </c>
       <c r="J76" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K76">
         <v>12</v>
@@ -7206,8 +8538,23 @@
       <c r="W76">
         <v>-0.33</v>
       </c>
+      <c r="X76">
+        <v>4.58</v>
+      </c>
+      <c r="Y76">
+        <v>95.98</v>
+      </c>
+      <c r="Z76">
+        <v>10.6</v>
+      </c>
       <c r="AC76" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>1</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -7215,22 +8562,25 @@
       <c r="AG76">
         <v>23.58992767333984</v>
       </c>
-      <c r="AH76" t="s">
-        <v>169</v>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>688146</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>20.01</v>
@@ -7248,7 +8598,7 @@
         <v>126473.01</v>
       </c>
       <c r="J77" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K77">
         <v>1</v>
@@ -7289,8 +8639,23 @@
       <c r="W77">
         <v>1.98</v>
       </c>
+      <c r="X77">
+        <v>-9.43</v>
+      </c>
+      <c r="Y77">
+        <v>46.62</v>
+      </c>
+      <c r="Z77">
+        <v>3.92</v>
+      </c>
       <c r="AC77" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
       </c>
       <c r="AF77">
         <v>1</v>
@@ -7298,22 +8663,25 @@
       <c r="AG77">
         <v>11.05868911743164</v>
       </c>
-      <c r="AH77" t="s">
-        <v>170</v>
+      <c r="AH77">
+        <v>1</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>688167</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>-3.03</v>
@@ -7331,7 +8699,7 @@
         <v>45308.72</v>
       </c>
       <c r="J78" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K78">
         <v>6</v>
@@ -7372,8 +8740,23 @@
       <c r="W78">
         <v>-0.43</v>
       </c>
+      <c r="X78">
+        <v>-3.33</v>
+      </c>
+      <c r="Y78">
+        <v>101.83</v>
+      </c>
+      <c r="Z78">
+        <v>0.97</v>
+      </c>
       <c r="AC78" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
       </c>
       <c r="AF78">
         <v>0</v>
@@ -7381,22 +8764,25 @@
       <c r="AG78">
         <v>2.791533708572388</v>
       </c>
-      <c r="AH78" t="s">
-        <v>169</v>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>688199</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>-1.1</v>
@@ -7414,7 +8800,7 @@
         <v>29356.84</v>
       </c>
       <c r="J79" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K79">
         <v>1</v>
@@ -7455,8 +8841,23 @@
       <c r="W79">
         <v>-0.25</v>
       </c>
+      <c r="X79">
+        <v>-4.67</v>
+      </c>
+      <c r="Y79">
+        <v>27.08</v>
+      </c>
+      <c r="Z79">
+        <v>0.33</v>
+      </c>
       <c r="AC79" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -7464,22 +8865,25 @@
       <c r="AG79">
         <v>-1.665709018707275</v>
       </c>
-      <c r="AH79" t="s">
-        <v>169</v>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80">
         <v>688270</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80">
         <v>13.35</v>
@@ -7497,7 +8901,7 @@
         <v>144303.99</v>
       </c>
       <c r="J80" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K80">
         <v>1</v>
@@ -7538,8 +8942,23 @@
       <c r="W80">
         <v>-0.5</v>
       </c>
+      <c r="X80">
+        <v>-4.39</v>
+      </c>
+      <c r="Y80">
+        <v>68.3</v>
+      </c>
+      <c r="Z80">
+        <v>1.7</v>
+      </c>
       <c r="AC80" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
       </c>
       <c r="AF80">
         <v>0</v>
@@ -7547,22 +8966,25 @@
       <c r="AG80">
         <v>1.773417353630066</v>
       </c>
-      <c r="AH80" t="s">
-        <v>169</v>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>688273</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>-5.96</v>
@@ -7580,7 +9002,7 @@
         <v>46838.21</v>
       </c>
       <c r="J81" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K81">
         <v>2</v>
@@ -7621,8 +9043,23 @@
       <c r="W81">
         <v>-1.4</v>
       </c>
+      <c r="X81">
+        <v>1.06</v>
+      </c>
+      <c r="Y81">
+        <v>53.69</v>
+      </c>
+      <c r="Z81">
+        <v>8.07</v>
+      </c>
       <c r="AC81" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>1</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -7630,22 +9067,25 @@
       <c r="AG81">
         <v>4.747769355773926</v>
       </c>
-      <c r="AH81" t="s">
-        <v>169</v>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>688313</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>2.93</v>
@@ -7663,7 +9103,7 @@
         <v>198521.89</v>
       </c>
       <c r="J82" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -7704,8 +9144,23 @@
       <c r="W82">
         <v>0.2</v>
       </c>
+      <c r="X82">
+        <v>-8.300000000000001</v>
+      </c>
+      <c r="Y82">
+        <v>60.65</v>
+      </c>
+      <c r="Z82">
+        <v>-0.26</v>
+      </c>
       <c r="AC82" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
       </c>
       <c r="AF82">
         <v>0</v>
@@ -7713,22 +9168,25 @@
       <c r="AG82">
         <v>8.350589752197266</v>
       </c>
-      <c r="AH82" t="s">
-        <v>169</v>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>688379</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>1.4</v>
@@ -7746,7 +9204,7 @@
         <v>21013.64</v>
       </c>
       <c r="J83" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K83">
         <v>4</v>
@@ -7787,8 +9245,23 @@
       <c r="W83">
         <v>-0.08</v>
       </c>
+      <c r="X83">
+        <v>0.27</v>
+      </c>
+      <c r="Y83">
+        <v>55.55</v>
+      </c>
+      <c r="Z83">
+        <v>9.779999999999999</v>
+      </c>
       <c r="AC83" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>1</v>
       </c>
       <c r="AF83">
         <v>0</v>
@@ -7796,22 +9269,25 @@
       <c r="AG83">
         <v>2.969019651412964</v>
       </c>
-      <c r="AH83" t="s">
-        <v>169</v>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>688498</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84">
         <v>3.7</v>
@@ -7829,7 +9305,7 @@
         <v>62873.52</v>
       </c>
       <c r="J84" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K84">
         <v>2</v>
@@ -7870,8 +9346,23 @@
       <c r="W84">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="X84">
+        <v>-5.88</v>
+      </c>
+      <c r="Y84">
+        <v>279.29</v>
+      </c>
+      <c r="Z84">
+        <v>-0.26</v>
+      </c>
       <c r="AC84" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -7879,22 +9370,25 @@
       <c r="AG84">
         <v>12.0388355255127</v>
       </c>
-      <c r="AH84" t="s">
-        <v>169</v>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C85">
         <v>688499</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E85">
         <v>-0.76</v>
@@ -7912,7 +9406,7 @@
         <v>43229.63</v>
       </c>
       <c r="J85" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K85">
         <v>42</v>
@@ -7953,8 +9447,23 @@
       <c r="W85">
         <v>-0.14</v>
       </c>
+      <c r="X85">
+        <v>-2.69</v>
+      </c>
+      <c r="Y85">
+        <v>62.6</v>
+      </c>
+      <c r="Z85">
+        <v>6.92</v>
+      </c>
       <c r="AC85" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
       </c>
       <c r="AF85">
         <v>0</v>
@@ -7962,22 +9471,25 @@
       <c r="AG85">
         <v>2.541836977005005</v>
       </c>
-      <c r="AH85" t="s">
-        <v>169</v>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C86">
         <v>688551</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E86">
         <v>-1.03</v>
@@ -7995,7 +9507,7 @@
         <v>22466.61</v>
       </c>
       <c r="J86" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K86">
         <v>3</v>
@@ -8036,8 +9548,23 @@
       <c r="W86">
         <v>0.43</v>
       </c>
+      <c r="X86">
+        <v>-7.68</v>
+      </c>
+      <c r="Y86">
+        <v>45.66</v>
+      </c>
+      <c r="Z86">
+        <v>3.21</v>
+      </c>
       <c r="AC86" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
       </c>
       <c r="AF86">
         <v>0</v>
@@ -8045,22 +9572,25 @@
       <c r="AG86">
         <v>2.810065746307373</v>
       </c>
-      <c r="AH86" t="s">
-        <v>169</v>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C87">
         <v>688603</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E87">
         <v>-2.98</v>
@@ -8078,7 +9608,7 @@
         <v>25172.87</v>
       </c>
       <c r="J87" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K87">
         <v>1</v>
@@ -8119,8 +9649,23 @@
       <c r="W87">
         <v>-0.5600000000000001</v>
       </c>
+      <c r="X87">
+        <v>8.58</v>
+      </c>
+      <c r="Y87">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="Z87">
+        <v>13.53</v>
+      </c>
       <c r="AC87" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>1</v>
       </c>
       <c r="AF87">
         <v>0</v>
@@ -8128,22 +9673,25 @@
       <c r="AG87">
         <v>3.450112581253052</v>
       </c>
-      <c r="AH87" t="s">
-        <v>169</v>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C88">
         <v>688630</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E88">
         <v>2.28</v>
@@ -8161,7 +9709,7 @@
         <v>61501.29</v>
       </c>
       <c r="J88" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K88">
         <v>15</v>
@@ -8202,8 +9750,23 @@
       <c r="W88">
         <v>0.01</v>
       </c>
+      <c r="X88">
+        <v>-8.82</v>
+      </c>
+      <c r="Y88">
+        <v>146</v>
+      </c>
+      <c r="Z88">
+        <v>3.44</v>
+      </c>
       <c r="AC88" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
       </c>
       <c r="AF88">
         <v>0</v>
@@ -8211,22 +9774,25 @@
       <c r="AG88">
         <v>4.269661903381348</v>
       </c>
-      <c r="AH88" t="s">
-        <v>169</v>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34">
+    <row r="89" spans="1:35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C89">
         <v>688800</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E89">
         <v>1.45</v>
@@ -8244,7 +9810,7 @@
         <v>83794.17999999999</v>
       </c>
       <c r="J89" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K89">
         <v>7</v>
@@ -8285,8 +9851,23 @@
       <c r="W89">
         <v>0.31</v>
       </c>
+      <c r="X89">
+        <v>-1.1</v>
+      </c>
+      <c r="Y89">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="Z89">
+        <v>11.11</v>
+      </c>
       <c r="AC89" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>1</v>
       </c>
       <c r="AF89">
         <v>0</v>
@@ -8294,8 +9875,11 @@
       <c r="AG89">
         <v>3.537442207336426</v>
       </c>
-      <c r="AH89" t="s">
-        <v>169</v>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
